--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF94E82-4A1C-4606-80F5-A54971E30F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F948097-58BA-44ED-8D72-26C4ABBD1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TXT_OPEN_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,19 +35,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产库项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LOCAL_PROJECTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STORE_PROJECTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,23 +407,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -415,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -423,7 +440,23 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F948097-58BA-44ED-8D72-26C4ABBD1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BE586-45A9-45B6-B740-D4FC1436A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>TXT_OPEN_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,146 @@
   </si>
   <si>
     <t>TXT_STORE_PROJECTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FILTER_PROJECTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SORT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SORT_TYPE_RECENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SORT_TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SORT_TYPE_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SORT_TYPE_TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FILTER_PROJECTS_HINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LANG_EN_US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LANG_ZH_HANS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语, 美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ABOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MANAGE_TAGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_REMOVE_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FAVORITES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MODIFIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TAGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该搜索框根据名称和路径的末尾部分来筛选项目。\n如果要根据名称和完整路径筛选，搜索内容应至少包含一个“/”字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,19 +548,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -427,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -443,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -451,12 +592,164 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BE586-45A9-45B6-B740-D4FC1436A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0237B80-482F-429E-A292-18C22CA23292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>TXT_OPEN_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +216,46 @@
   </si>
   <si>
     <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NEW_PROJECT_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PROJECT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PROJECT_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A25" sqref="A25:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -752,6 +803,46 @@
         <v>20</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0237B80-482F-429E-A292-18C22CA23292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB6A4D-C0FE-47EB-8455-8CC45A416C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>TXT_OPEN_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该搜索框根据名称和路径的末尾部分来筛选项目。\n如果要根据名称和完整路径筛选，搜索内容应至少包含一个“/”字符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,122 @@
   </si>
   <si>
     <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_SECONDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_MINUTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_HOURS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_MONTHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d秒前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d分钟前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d小时前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d天前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d月前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BEFORE_X_YEARS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d年前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WARNING_EMPTY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WARNING_EMPTY_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该搜索框根据名称和路径的末尾部分来筛选项目。\n如果要根据名称和完整路径筛选，搜索内容应至少包含一个“/"字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重启启动器以切换语言！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_INFO_CHANGE_LANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BTN_RESTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BTN_CLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B29"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -760,7 +872,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -768,7 +880,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -776,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -792,7 +904,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -805,42 +917,154 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB6A4D-C0FE-47EB-8455-8CC45A416C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD182C4B-9BAA-443B-ABD8-074077296304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>TXT_OPEN_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该路径下已经存在同名工程！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WARNING_EXISTS_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1067,6 +1075,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
+++ b/source/Tools/LanguageGenerator/Launcher/lang-zh-hans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD182C4B-9BAA-443B-ABD8-074077296304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A4943-6673-481D-8E06-079DD011B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
-    <t>TXT_OPEN_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TXT_NEW_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TXT_LOCAL_PROJECTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +368,14 @@
   </si>
   <si>
     <t>TXT_WARNING_EXISTS_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_IMPORT_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +722,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -733,354 +733,354 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
